--- a/data/trans_orig/P12_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P12_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B13BBD1F-06E4-4DA6-84B7-FFE12B534B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF92BEA-A1A3-4B3E-A3EE-4C42A24024FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F112F2D-DCD8-4792-9CF6-796A03F8239C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F35156C5-4479-4362-BD67-BA64562DD7CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
   <si>
     <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1486 +77,1504 @@
     <t>10,72%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>11,46%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>33,81%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
   </si>
   <si>
     <t>27,43%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>66,19%</t>
   </si>
   <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>72,57%</t>
   </si>
   <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FDAB5C-FD36-433D-92C0-62CB28C40363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D455458F-46CA-449B-954E-D58199361C5A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3100,7 +3118,7 @@
         <v>5224</v>
       </c>
       <c r="N23" s="7">
-        <v>5345030</v>
+        <v>5345031</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3151,7 +3169,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3187,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C75257-2E9A-4A9B-AFAE-16F1384DCD37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13465370-7BBD-469F-AC92-5D73374ACBD8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3639,10 +3657,10 @@
         <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>279</v>
@@ -3651,13 +3669,13 @@
         <v>290459</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3690,13 @@
         <v>567164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>496</v>
@@ -3687,13 +3705,13 @@
         <v>533141</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1037</v>
@@ -3702,13 +3720,13 @@
         <v>1100305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3794,13 @@
         <v>94825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -3791,13 +3809,13 @@
         <v>176300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
@@ -3806,13 +3824,13 @@
         <v>271125</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3845,13 @@
         <v>518660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>381</v>
@@ -3842,13 +3860,13 @@
         <v>437926</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>846</v>
@@ -3857,13 +3875,13 @@
         <v>956586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3949,13 @@
         <v>85792</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -3946,13 +3964,13 @@
         <v>127703</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -3961,13 +3979,13 @@
         <v>213494</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +4000,13 @@
         <v>343637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>289</v>
@@ -3997,13 +4015,13 @@
         <v>320097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>602</v>
@@ -4012,13 +4030,13 @@
         <v>663735</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4104,13 @@
         <v>105800</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>225</v>
@@ -4101,13 +4119,13 @@
         <v>241315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -4119,10 +4137,10 @@
         <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4155,13 @@
         <v>451840</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>468</v>
@@ -4152,13 +4170,13 @@
         <v>500621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>874</v>
@@ -4170,10 +4188,10 @@
         <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4259,13 @@
         <v>540216</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>856</v>
@@ -4256,13 +4274,13 @@
         <v>919506</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1358</v>
@@ -4271,13 +4289,13 @@
         <v>1459722</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4310,13 @@
         <v>2883434</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2435</v>
@@ -4307,13 +4325,13 @@
         <v>2630804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>5139</v>
@@ -4322,13 +4340,13 @@
         <v>5514238</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3346626B-DA7E-48C8-9C02-27B3AB6EB9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED01BF74-C03A-4745-9752-E0F140C69930}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4423,7 +4441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4530,13 +4548,13 @@
         <v>30233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -4545,13 +4563,13 @@
         <v>40885</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>71</v>
@@ -4560,13 +4578,13 @@
         <v>71118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4599,13 @@
         <v>389230</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>361</v>
@@ -4596,13 +4614,13 @@
         <v>354870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>726</v>
@@ -4611,13 +4629,13 @@
         <v>744100</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4703,13 @@
         <v>54625</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -4700,13 +4718,13 @@
         <v>67529</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
@@ -4715,13 +4733,13 @@
         <v>122154</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4754,13 @@
         <v>535871</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4751,13 +4769,13 @@
         <v>496015</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
         <v>1028</v>
@@ -4766,13 +4784,13 @@
         <v>1031886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4858,13 @@
         <v>62424</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4855,13 +4873,13 @@
         <v>80991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>141</v>
@@ -4870,13 +4888,13 @@
         <v>143415</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4909,13 @@
         <v>606673</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>579</v>
@@ -4906,13 +4924,13 @@
         <v>577788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>1159</v>
@@ -4921,13 +4939,13 @@
         <v>1184461</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +5013,13 @@
         <v>93218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5010,13 +5028,13 @@
         <v>101646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -5025,13 +5043,13 @@
         <v>194865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5064,13 @@
         <v>551684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -5061,13 +5079,13 @@
         <v>547431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>1001</v>
@@ -5076,13 +5094,13 @@
         <v>1099115</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5168,13 @@
         <v>59614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -5165,13 +5183,13 @@
         <v>105564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -5180,13 +5198,13 @@
         <v>165179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5219,13 @@
         <v>417278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -5216,13 +5234,13 @@
         <v>389046</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>707</v>
@@ -5231,13 +5249,13 @@
         <v>806324</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5323,13 @@
         <v>94889</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -5320,13 +5338,13 @@
         <v>191940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>265</v>
@@ -5335,13 +5353,13 @@
         <v>286829</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5374,13 @@
         <v>496439</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>492</v>
@@ -5371,13 +5389,13 @@
         <v>584720</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>1016</v>
@@ -5386,13 +5404,13 @@
         <v>1081159</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5478,13 @@
         <v>395005</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>545</v>
@@ -5475,13 +5493,13 @@
         <v>588555</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>924</v>
@@ -5490,13 +5508,13 @@
         <v>983560</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5529,13 @@
         <v>2997174</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>2787</v>
@@ -5526,13 +5544,13 @@
         <v>2949871</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>5637</v>
@@ -5541,13 +5559,13 @@
         <v>5947044</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322B534E-DB6B-4303-AE16-AAE16F5FE09D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B61D0D-03AB-480D-9539-048E8CFCE960}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5642,7 +5660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5749,13 +5767,13 @@
         <v>23198</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -5764,13 +5782,13 @@
         <v>45258</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -5779,13 +5797,13 @@
         <v>68456</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5818,13 @@
         <v>354481</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -5815,13 +5833,13 @@
         <v>309699</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -5830,13 +5848,13 @@
         <v>664180</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5922,13 @@
         <v>37250</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -5919,13 +5937,13 @@
         <v>59125</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M7" s="7">
         <v>85</v>
@@ -5934,13 +5952,13 @@
         <v>96375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5973,13 @@
         <v>391146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>403</v>
@@ -5970,13 +5988,13 @@
         <v>439452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>677</v>
@@ -5985,13 +6003,13 @@
         <v>830598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6077,13 @@
         <v>65738</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -6074,13 +6092,13 @@
         <v>96583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
@@ -6089,13 +6107,13 @@
         <v>162320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6128,13 @@
         <v>491514</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>701</v>
@@ -6125,13 +6143,13 @@
         <v>486893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>1186</v>
@@ -6140,13 +6158,13 @@
         <v>978407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6232,13 @@
         <v>99708</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>232</v>
@@ -6229,13 +6247,13 @@
         <v>143954</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>333</v>
@@ -6244,13 +6262,13 @@
         <v>243662</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6283,13 @@
         <v>624282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>909</v>
@@ -6280,28 +6298,28 @@
         <v>603307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>452</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>1473</v>
       </c>
       <c r="N14" s="7">
-        <v>1227590</v>
+        <v>1227589</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,7 +6361,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6369,13 +6387,13 @@
         <v>108934</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>240</v>
@@ -6384,13 +6402,13 @@
         <v>138959</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="M16" s="7">
         <v>364</v>
@@ -6399,13 +6417,13 @@
         <v>247893</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6438,13 @@
         <v>491223</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H17" s="7">
         <v>762</v>
@@ -6435,13 +6453,13 @@
         <v>458104</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>1301</v>
@@ -6450,13 +6468,13 @@
         <v>949327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6542,13 @@
         <v>125790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
         <v>449</v>
@@ -6539,13 +6557,13 @@
         <v>346694</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M19" s="7">
         <v>640</v>
@@ -6554,13 +6572,13 @@
         <v>472484</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6593,13 @@
         <v>571128</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>1257</v>
@@ -6590,13 +6608,13 @@
         <v>678833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>2093</v>
@@ -6605,13 +6623,13 @@
         <v>1249960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,28 +6697,28 @@
         <v>460618</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>292</v>
+        <v>495</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
         <v>1148</v>
       </c>
       <c r="I22" s="7">
-        <v>830573</v>
+        <v>830574</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
         <v>1662</v>
@@ -6709,13 +6727,13 @@
         <v>1291191</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6748,13 @@
         <v>2923773</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>504</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>300</v>
+        <v>505</v>
       </c>
       <c r="H23" s="7">
         <v>4214</v>
@@ -6745,13 +6763,13 @@
         <v>2976288</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="M23" s="7">
         <v>7075</v>
@@ -6760,13 +6778,13 @@
         <v>5900061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,7 +6811,7 @@
         <v>5362</v>
       </c>
       <c r="I24" s="7">
-        <v>3806861</v>
+        <v>3806862</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P12_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P12_1_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF92BEA-A1A3-4B3E-A3EE-4C42A24024FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F800AD-8B57-464B-B940-7FC7198B0657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F35156C5-4479-4362-BD67-BA64562DD7CD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8447A0DC-3212-41B9-8902-1B0499DD55D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
   <si>
     <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,72%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,28%</t>
   </si>
   <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>14,36%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>83,38%</t>
   </si>
   <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>18,08%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>21,99%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>78,01%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>18,11%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
   </si>
   <si>
     <t>22,82%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>81,89%</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>77,18%</t>
   </si>
   <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,49 @@
     <t>21,06%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>26,79%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>31,23%</t>
   </si>
   <si>
     <t>23,98%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>73,21%</t>
   </si>
   <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>68,77%</t>
   </si>
   <si>
     <t>76,02%</t>
   </si>
   <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,1101 +362,1119 @@
     <t>20,94%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>77,97%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
   </si>
   <si>
     <t>79,29%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2012 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
     <t>77,09%</t>
   </si>
   <si>
@@ -1472,9 +1484,6 @@
     <t>18,05%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
     <t>20,29%</t>
   </si>
   <si>
@@ -1500,9 +1509,6 @@
   </si>
   <si>
     <t>79,71%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
   </si>
   <si>
     <t>66,19%</t>
@@ -1986,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D455458F-46CA-449B-954E-D58199361C5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4393D8C6-4A01-44DF-90AC-0B3D6D2C8AB4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2748,10 +2754,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -2760,13 +2766,13 @@
         <v>189646</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2787,13 @@
         <v>305281</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>291</v>
@@ -2796,13 +2802,13 @@
         <v>295770</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>601</v>
@@ -2811,13 +2817,13 @@
         <v>601050</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2879,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2885,13 +2891,13 @@
         <v>105194</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>175</v>
@@ -2900,13 +2906,13 @@
         <v>180809</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>287</v>
@@ -2915,13 +2921,13 @@
         <v>286002</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2942,13 @@
         <v>397272</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>486</v>
@@ -2951,13 +2957,13 @@
         <v>496033</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>897</v>
@@ -2966,13 +2972,13 @@
         <v>893306</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3046,13 @@
         <v>554668</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>738</v>
@@ -3055,13 +3061,13 @@
         <v>756042</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1287</v>
@@ -3070,13 +3076,13 @@
         <v>1310710</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,16 +3094,16 @@
         <v>2665</v>
       </c>
       <c r="D23" s="7">
-        <v>2721876</v>
+        <v>2721875</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2559</v>
@@ -3106,13 +3112,13 @@
         <v>2623156</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5224</v>
@@ -3121,13 +3127,13 @@
         <v>5345031</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,7 +3145,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3183,7 +3189,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13465370-7BBD-469F-AC92-5D73374ACBD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4523E221-04F7-4FD5-A693-770523EBE09A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3222,7 +3228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,13 +3335,13 @@
         <v>45085</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -3344,13 +3350,13 @@
         <v>76137</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>116</v>
@@ -3359,13 +3365,13 @@
         <v>121222</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3386,13 @@
         <v>409061</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>347</v>
@@ -3395,13 +3401,13 @@
         <v>352119</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>749</v>
@@ -3410,13 +3416,13 @@
         <v>761180</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3490,13 @@
         <v>94015</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -3499,13 +3505,13 @@
         <v>122292</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>206</v>
@@ -3514,13 +3520,13 @@
         <v>216307</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3541,13 @@
         <v>593072</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -3550,13 +3556,13 @@
         <v>486899</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1031</v>
@@ -3565,13 +3571,13 @@
         <v>1079971</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3645,13 @@
         <v>114699</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>169</v>
@@ -3654,13 +3660,13 @@
         <v>175760</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>279</v>
@@ -3669,13 +3675,13 @@
         <v>290459</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3696,13 @@
         <v>567164</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>496</v>
@@ -3705,13 +3711,13 @@
         <v>533141</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1037</v>
@@ -3720,13 +3726,13 @@
         <v>1100305</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3800,13 @@
         <v>94825</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -3809,13 +3815,13 @@
         <v>176300</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
@@ -3824,13 +3830,13 @@
         <v>271125</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3851,13 @@
         <v>518660</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>381</v>
@@ -3860,13 +3866,13 @@
         <v>437926</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>846</v>
@@ -3875,13 +3881,13 @@
         <v>956586</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3955,13 @@
         <v>85792</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -3964,13 +3970,13 @@
         <v>127703</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -3979,13 +3985,13 @@
         <v>213494</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4006,13 @@
         <v>343637</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>289</v>
@@ -4015,13 +4021,13 @@
         <v>320097</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>602</v>
@@ -4030,13 +4036,13 @@
         <v>663735</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,7 +4098,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4104,13 +4110,13 @@
         <v>105800</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>225</v>
@@ -4119,13 +4125,13 @@
         <v>241315</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -4134,13 +4140,13 @@
         <v>347115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,10 +4161,10 @@
         <v>451840</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>244</v>
@@ -4185,7 +4191,7 @@
         <v>952461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>248</v>
@@ -4402,7 +4408,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4424,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED01BF74-C03A-4745-9752-E0F140C69930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B824FB31-0766-44D0-80A0-49592640E354}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4736,10 +4742,10 @@
         <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4760,13 @@
         <v>535871</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4769,13 +4775,13 @@
         <v>496015</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>1028</v>
@@ -4784,13 +4790,13 @@
         <v>1031886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4864,13 @@
         <v>62424</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -4873,13 +4879,13 @@
         <v>80991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>141</v>
@@ -4888,13 +4894,13 @@
         <v>143415</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4915,13 @@
         <v>606673</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>579</v>
@@ -4924,13 +4930,13 @@
         <v>577788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>1159</v>
@@ -4939,13 +4945,13 @@
         <v>1184461</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5019,13 @@
         <v>93218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5028,13 +5034,13 @@
         <v>101646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -5043,13 +5049,13 @@
         <v>194865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5070,13 @@
         <v>551684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -5079,13 +5085,13 @@
         <v>547431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>1001</v>
@@ -5094,13 +5100,13 @@
         <v>1099115</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5174,13 @@
         <v>59614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -5183,13 +5189,13 @@
         <v>105564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -5198,13 +5204,13 @@
         <v>165179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5225,13 @@
         <v>417278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -5234,13 +5240,13 @@
         <v>389046</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
         <v>707</v>
@@ -5249,13 +5255,13 @@
         <v>806324</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,7 +5317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5621,7 +5627,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5643,7 +5649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B61D0D-03AB-480D-9539-048E8CFCE960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7F1F8D-DB26-451E-8992-FDA7DC82DEB5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6253,7 +6259,7 @@
         <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>333</v>
@@ -6262,13 +6268,13 @@
         <v>243662</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6289,13 @@
         <v>624282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>909</v>
@@ -6298,13 +6304,13 @@
         <v>603307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>1473</v>
@@ -6313,13 +6319,13 @@
         <v>1227589</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6393,13 @@
         <v>108934</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>240</v>
@@ -6402,13 +6408,13 @@
         <v>138959</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M16" s="7">
         <v>364</v>
@@ -6417,13 +6423,13 @@
         <v>247893</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6444,13 @@
         <v>491223</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H17" s="7">
         <v>762</v>
@@ -6453,13 +6459,13 @@
         <v>458104</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>1301</v>
@@ -6468,13 +6474,13 @@
         <v>949327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,7 +6536,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6542,13 +6548,13 @@
         <v>125790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H19" s="7">
         <v>449</v>
@@ -6557,13 +6563,13 @@
         <v>346694</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M19" s="7">
         <v>640</v>
@@ -6572,13 +6578,13 @@
         <v>472484</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6599,13 @@
         <v>571128</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>1257</v>
@@ -6608,13 +6614,13 @@
         <v>678833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>2093</v>
@@ -6623,13 +6629,13 @@
         <v>1249960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6703,13 @@
         <v>460618</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>1148</v>
@@ -6712,13 +6718,13 @@
         <v>830574</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
         <v>1662</v>
@@ -6727,13 +6733,13 @@
         <v>1291191</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6754,13 @@
         <v>2923773</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
         <v>4214</v>
@@ -6763,13 +6769,13 @@
         <v>2976288</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
         <v>7075</v>
@@ -6778,13 +6784,13 @@
         <v>5900061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6846,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
